--- a/Assets/06.Table/SasinsuTable.xlsx
+++ b/Assets/06.Table/SasinsuTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D2603-E58C-410E-9209-6BF49EDF1031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E5B6B2-3D44-4688-BBC4-943C3FE27A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,63 +96,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영,일,이,삼,사,오,육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,9,10,11,12,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2,2,2,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,15,16,17,18,19,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,3,3,3,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,22,23,24,25,26,27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20,30,40,50,60,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>십,이십,삼십,사십,오십,육십,칠십</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백,이백,삼백,사백,오백,육백,칠백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천,이천,삼천,사천,오천,육천,칠천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,2000000,3000000,4000000,5000000,6000000,7000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000000,200000000000,300000000000,400000000000,500000000000,600000000000,700000000000</t>
+    <t>42,42,42,42,42,42,42</t>
+  </si>
+  <si>
+    <t>0.1,0.1,0.1,0.1,0.1,0.1,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000불,2000불,3000불,5000불,7000불,1무,2무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5무,10무,100무,1000무,5000무,1대,10대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100대,500대,1000대,3000대,5000대,1겁,10겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100겁,1000겁,1업,10업,100업,500업,1000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,9 +534,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.25" customWidth="1"/>
     <col min="5" max="5" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,16 +574,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -618,16 +597,16 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -641,16 +620,16 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -664,16 +643,16 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SasinsuTable.xlsx
+++ b/Assets/06.Table/SasinsuTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E5B6B2-3D44-4688-BBC4-943C3FE27A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120184DC-0A7E-4F60-A89A-2C8643408CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SasinsuTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,9 @@
   <si>
     <t>1000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15,0.15,0.15,0.15,0.15,0.15,0.15</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -652,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
